--- a/output/go_analysis/gorilla_gerp_function.xlsx
+++ b/output/go_analysis/gorilla_gerp_function.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vistor/Documents/Work/GitHub/PhD/ms_load_grouse/output/go_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2F98C73-B595-1A45-BED5-DDED8C0790C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7F5A1C-3322-C243-9EBF-0C94365566E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{E81AD09D-6147-0A47-9A69-134F9341C538}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15740" xr2:uid="{E81AD09D-6147-0A47-9A69-134F9341C538}"/>
   </bookViews>
   <sheets>
     <sheet name="gorilla_gerp_function" sheetId="1" r:id="rId1"/>
@@ -1201,7 +1201,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6768ED-F0FD-D04B-93ED-DC49CE6CFA54}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
